--- a/Fossil Model Painting Statue_Steven.xlsx
+++ b/Fossil Model Painting Statue_Steven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\套装\AnimalCrossing-Item-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140CC2E-FAF2-4FB4-903F-A4812922D512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1070A36A-ECDD-43C2-A090-8EB23E3F5458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="4545" windowWidth="16365" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="216">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -264,216 +261,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>saw stag model</t>
-  </si>
-  <si>
-    <t>grand h. hercules model</t>
-  </si>
-  <si>
-    <t>wasp model</t>
-  </si>
-  <si>
-    <t>honeybee model</t>
-  </si>
-  <si>
-    <t>scarab beetle model</t>
-  </si>
-  <si>
-    <t>flea model</t>
-  </si>
-  <si>
-    <t>mosquito model</t>
-  </si>
-  <si>
-    <t>horned dynastid model</t>
-  </si>
-  <si>
-    <t>tiger butterfly model</t>
-  </si>
-  <si>
-    <t>brown cicada model</t>
-  </si>
-  <si>
-    <t>R. Brooke's birdwing model</t>
-  </si>
-  <si>
-    <t>red dragonfly model</t>
-  </si>
-  <si>
-    <t>grand Q. A. birdwing model</t>
-  </si>
-  <si>
-    <t>pondskater model</t>
-  </si>
-  <si>
-    <t>ant model</t>
-  </si>
-  <si>
-    <t>pill bug model</t>
-  </si>
-  <si>
-    <t>wharf roach model</t>
-  </si>
-  <si>
-    <t>moth model</t>
-  </si>
-  <si>
-    <t>diving beetle model</t>
-  </si>
-  <si>
-    <t>darner dragonfly model</t>
-  </si>
-  <si>
-    <t>grand goliath beetle model</t>
-  </si>
-  <si>
-    <t>fly model</t>
-  </si>
-  <si>
-    <t>orchid mantis model</t>
-  </si>
-  <si>
-    <t>tiger beetle model</t>
-  </si>
-  <si>
-    <t>evening cicada model</t>
-  </si>
-  <si>
-    <t>cyclommatus stag model</t>
-  </si>
-  <si>
-    <t>firefly model</t>
-  </si>
-  <si>
-    <t>dung beetle model</t>
-  </si>
-  <si>
-    <t>rice grasshopper model</t>
-  </si>
-  <si>
-    <t>mantis model</t>
-  </si>
-  <si>
-    <t>stinkbug model</t>
-  </si>
-  <si>
-    <t>citrus long-horned b. model</t>
-  </si>
-  <si>
-    <t>peacock butterfly model</t>
-  </si>
-  <si>
-    <t>snail model</t>
-  </si>
-  <si>
-    <t>grasshopper model</t>
-  </si>
-  <si>
-    <t>earth-boring dung b. model</t>
-  </si>
-  <si>
-    <t>horned atlas model</t>
-  </si>
-  <si>
-    <t>walking leaf model</t>
-  </si>
-  <si>
-    <t>cricket model</t>
-  </si>
-  <si>
-    <t>giant cicada model</t>
-  </si>
-  <si>
-    <t>spider model</t>
-  </si>
-  <si>
-    <t>agrias butterfly model</t>
-  </si>
-  <si>
-    <t>robust cicada model</t>
-  </si>
-  <si>
-    <t>bagworm model</t>
-  </si>
-  <si>
-    <t>miyama stag model</t>
-  </si>
-  <si>
-    <t>yellow butterfly model</t>
-  </si>
-  <si>
-    <t>common butterfly model</t>
-  </si>
-  <si>
-    <t>emperor butterfly model</t>
-  </si>
-  <si>
-    <t>walking stick model</t>
-  </si>
-  <si>
-    <t>rainbow stag model</t>
-  </si>
-  <si>
-    <t>mole cricket model</t>
-  </si>
-  <si>
-    <t>grand b. dragonfly model</t>
-  </si>
-  <si>
-    <t>monarch butterfly model</t>
-  </si>
-  <si>
-    <t>giant stag model</t>
-  </si>
-  <si>
-    <t>golden stag model</t>
-  </si>
-  <si>
-    <t>scorpion model</t>
-  </si>
-  <si>
-    <t>cicada shell model</t>
-  </si>
-  <si>
-    <t>bell cricket model</t>
-  </si>
-  <si>
-    <t>long locust model</t>
-  </si>
-  <si>
-    <t>jewel beetle model</t>
-  </si>
-  <si>
-    <t>tarantula model</t>
-  </si>
-  <si>
-    <t>ladybug model</t>
-  </si>
-  <si>
-    <t>migratory locust model</t>
-  </si>
-  <si>
-    <t>walker cicada model</t>
-  </si>
-  <si>
-    <t>violin beetle model</t>
-  </si>
-  <si>
-    <t>hermit crab model</t>
-  </si>
-  <si>
-    <t>grand Atlas moth model</t>
-  </si>
-  <si>
-    <t>horned elephant model</t>
-  </si>
-  <si>
-    <t>common bluebottle model</t>
-  </si>
-  <si>
-    <t>paper kite butterfly model</t>
-  </si>
-  <si>
     <t>great purple emperor model</t>
   </si>
   <si>
@@ -883,6 +670,9 @@
   </si>
   <si>
     <t>mysterious painting</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="I280" sqref="I280"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="C145" sqref="A1:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1223,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,10 +1024,10 @@
         <v>6020</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,10 +1035,10 @@
         <v>6021</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,10 +1046,10 @@
         <v>6022</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,10 +1057,10 @@
         <v>6023</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,10 +1068,10 @@
         <v>6024</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,10 +1079,10 @@
         <v>6025</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,10 +1090,10 @@
         <v>6026</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,10 +1101,10 @@
         <v>6027</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,10 +1112,10 @@
         <v>6028</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,10 +1123,10 @@
         <v>6029</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1344,10 +1134,10 @@
         <v>6030</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,10 +1145,10 @@
         <v>6031</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1366,10 +1156,10 @@
         <v>6032</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1377,10 +1167,10 @@
         <v>6033</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1388,10 +1178,10 @@
         <v>6034</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1399,10 +1189,10 @@
         <v>6035</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1410,10 +1200,10 @@
         <v>6036</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1421,10 +1211,10 @@
         <v>6037</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,10 +1222,10 @@
         <v>6038</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1443,10 +1233,10 @@
         <v>6039</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,10 +1244,10 @@
         <v>6040</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1465,10 +1255,10 @@
         <v>6041</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1476,10 +1266,10 @@
         <v>6042</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1487,10 +1277,10 @@
         <v>6043</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1498,10 +1288,10 @@
         <v>6044</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,10 +1299,10 @@
         <v>6045</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,10 +1310,10 @@
         <v>6046</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1531,10 +1321,10 @@
         <v>6047</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,10 +1332,10 @@
         <v>6048</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1553,10 +1343,10 @@
         <v>6049</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,10 +1354,10 @@
         <v>6050</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1575,10 +1365,10 @@
         <v>6051</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1586,10 +1376,10 @@
         <v>6052</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,10 +1387,10 @@
         <v>6053</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,10 +1398,10 @@
         <v>6054</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,10 +1409,10 @@
         <v>6055</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1630,10 +1420,10 @@
         <v>6056</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,10 +1431,10 @@
         <v>6057</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1442,10 @@
         <v>6058</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1663,10 +1453,10 @@
         <v>6059</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1674,10 +1464,10 @@
         <v>6060</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1685,10 +1475,10 @@
         <v>6061</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,10 +1486,10 @@
         <v>6062</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,10 +1497,10 @@
         <v>6063</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,10 +1508,10 @@
         <v>6064</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1729,10 +1519,10 @@
         <v>6065</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1740,10 +1530,10 @@
         <v>6066</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1751,10 +1541,10 @@
         <v>6067</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1762,10 +1552,10 @@
         <v>6068</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1773,10 +1563,10 @@
         <v>6069</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1784,10 +1574,10 @@
         <v>6070</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,10 +1585,10 @@
         <v>6071</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1806,10 +1596,10 @@
         <v>6072</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1817,10 +1607,10 @@
         <v>6073</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1828,10 +1618,10 @@
         <v>6074</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,10 +1629,10 @@
         <v>6075</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,10 +1640,10 @@
         <v>6076</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1861,10 +1651,10 @@
         <v>6077</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1872,10 +1662,10 @@
         <v>6078</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1883,10 +1673,10 @@
         <v>6079</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1894,10 +1684,10 @@
         <v>6080</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1905,10 +1695,10 @@
         <v>6081</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,10 +1706,10 @@
         <v>6082</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1927,10 +1717,10 @@
         <v>6083</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1938,10 +1728,10 @@
         <v>6084</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,10 +1739,10 @@
         <v>6085</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1960,10 +1750,10 @@
         <v>6086</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,10 +1761,10 @@
         <v>6087</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,10 +1772,10 @@
         <v>6088</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1993,10 +1783,10 @@
         <v>6089</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2004,10 +1794,10 @@
         <v>6090</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2015,10 +1805,10 @@
         <v>6091</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2026,10 +1816,10 @@
         <v>6092</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2037,780 +1827,780 @@
         <v>6093</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>6094</v>
+        <v>8859</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>6095</v>
+        <v>8861</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>6096</v>
+        <v>8863</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6097</v>
+        <v>8865</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6098</v>
+        <v>8867</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>6099</v>
+        <v>8868</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>6100</v>
+        <v>8870</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6101</v>
+        <v>8872</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6102</v>
+        <v>8874</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6103</v>
+        <v>8875</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6104</v>
+        <v>8876</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6105</v>
+        <v>8878</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6106</v>
+        <v>8879</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6107</v>
+        <v>8880</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6108</v>
+        <v>8881</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6109</v>
+        <v>8882</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>6110</v>
+        <v>8883</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>6111</v>
+        <v>8885</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>6112</v>
+        <v>8887</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>6113</v>
+        <v>8888</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>6114</v>
+        <v>8890</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>6115</v>
+        <v>8892</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>6116</v>
+        <v>8893</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>6117</v>
+        <v>8894</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>6118</v>
+        <v>8896</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>6119</v>
+        <v>8898</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>6120</v>
+        <v>8900</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>6121</v>
+        <v>8902</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>6122</v>
+        <v>8903</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>6123</v>
+        <v>8905</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>6124</v>
+        <v>8907</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>6125</v>
+        <v>8909</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>6126</v>
+        <v>8911</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>6127</v>
+        <v>8913</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>6128</v>
+        <v>8915</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>6129</v>
+        <v>8917</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>6130</v>
+        <v>8918</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>6131</v>
+        <v>8920</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>6132</v>
+        <v>8921</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>6133</v>
+        <v>8923</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>6134</v>
+        <v>8924</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>6135</v>
+        <v>8926</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>6136</v>
+        <v>8927</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>6137</v>
+        <v>8860</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>6138</v>
+        <v>8862</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>6139</v>
+        <v>8864</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>6140</v>
+        <v>8866</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>6141</v>
+        <v>8869</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>6142</v>
+        <v>8871</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>6143</v>
+        <v>8873</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>6144</v>
+        <v>8877</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>6145</v>
+        <v>8884</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>6146</v>
+        <v>8886</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>6147</v>
+        <v>8889</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>6148</v>
+        <v>8891</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>6149</v>
+        <v>8895</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6150</v>
+        <v>8897</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>6151</v>
+        <v>8899</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>6152</v>
+        <v>8901</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>6153</v>
+        <v>8904</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>6154</v>
+        <v>8906</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>6155</v>
+        <v>8908</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>6156</v>
+        <v>8910</v>
       </c>
       <c r="B138" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>6157</v>
+        <v>8912</v>
       </c>
       <c r="B139" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>6158</v>
+        <v>8914</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>6159</v>
+        <v>8916</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>6160</v>
+        <v>8919</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>6161</v>
+        <v>8922</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>6162</v>
+        <v>8925</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>6163</v>
+        <v>8928</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2818,10 +2608,10 @@
         <v>6164</v>
       </c>
       <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="s">
         <v>78</v>
-      </c>
-      <c r="C146" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2829,10 +2619,10 @@
         <v>6165</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2840,10 +2630,10 @@
         <v>6166</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2851,10 +2641,10 @@
         <v>6167</v>
       </c>
       <c r="B149" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2862,10 +2652,10 @@
         <v>6168</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2873,10 +2663,10 @@
         <v>6169</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2884,10 +2674,10 @@
         <v>6170</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2895,10 +2685,10 @@
         <v>6171</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2906,10 +2696,10 @@
         <v>6172</v>
       </c>
       <c r="B154" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2917,10 +2707,10 @@
         <v>6173</v>
       </c>
       <c r="B155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2928,10 +2718,10 @@
         <v>6174</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2939,10 +2729,10 @@
         <v>6175</v>
       </c>
       <c r="B157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2950,10 +2740,10 @@
         <v>6176</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2961,10 +2751,10 @@
         <v>6177</v>
       </c>
       <c r="B159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2972,10 +2762,10 @@
         <v>6178</v>
       </c>
       <c r="B160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2983,10 +2773,10 @@
         <v>6179</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2994,10 +2784,10 @@
         <v>6180</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3005,10 +2795,10 @@
         <v>6181</v>
       </c>
       <c r="B163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -3016,10 +2806,10 @@
         <v>6182</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -3027,10 +2817,10 @@
         <v>6183</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C165" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3038,10 +2828,10 @@
         <v>6184</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3049,10 +2839,10 @@
         <v>6185</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C167" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3060,10 +2850,10 @@
         <v>6186</v>
       </c>
       <c r="B168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C168" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3071,10 +2861,10 @@
         <v>6187</v>
       </c>
       <c r="B169" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3082,10 +2872,10 @@
         <v>6188</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3093,10 +2883,10 @@
         <v>6189</v>
       </c>
       <c r="B171" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C171" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3104,10 +2894,10 @@
         <v>6190</v>
       </c>
       <c r="B172" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C172" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,10 +2905,10 @@
         <v>6191</v>
       </c>
       <c r="B173" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3126,10 +2916,10 @@
         <v>6192</v>
       </c>
       <c r="B174" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C174" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3137,10 +2927,10 @@
         <v>6193</v>
       </c>
       <c r="B175" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3148,10 +2938,10 @@
         <v>6194</v>
       </c>
       <c r="B176" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C176" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3159,10 +2949,10 @@
         <v>6195</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C177" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3170,10 +2960,10 @@
         <v>6196</v>
       </c>
       <c r="B178" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3181,10 +2971,10 @@
         <v>6197</v>
       </c>
       <c r="B179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C179" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3192,10 +2982,10 @@
         <v>6198</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C180" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3203,10 +2993,10 @@
         <v>6199</v>
       </c>
       <c r="B181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3214,10 +3004,10 @@
         <v>6200</v>
       </c>
       <c r="B182" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C182" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3225,10 +3015,10 @@
         <v>6201</v>
       </c>
       <c r="B183" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C183" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,10 +3026,10 @@
         <v>6202</v>
       </c>
       <c r="B184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C184" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3247,10 +3037,10 @@
         <v>6203</v>
       </c>
       <c r="B185" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,10 +3048,10 @@
         <v>6204</v>
       </c>
       <c r="B186" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C186" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,10 +3059,10 @@
         <v>6205</v>
       </c>
       <c r="B187" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C187" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3280,10 +3070,10 @@
         <v>6206</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C188" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,10 +3081,10 @@
         <v>6207</v>
       </c>
       <c r="B189" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C189" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,10 +3092,10 @@
         <v>6208</v>
       </c>
       <c r="B190" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C190" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,10 +3103,10 @@
         <v>6209</v>
       </c>
       <c r="B191" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C191" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3324,10 +3114,10 @@
         <v>6210</v>
       </c>
       <c r="B192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C192" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3335,10 +3125,10 @@
         <v>6211</v>
       </c>
       <c r="B193" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C193" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,10 +3136,10 @@
         <v>6212</v>
       </c>
       <c r="B194" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C194" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,10 +3147,10 @@
         <v>6213</v>
       </c>
       <c r="B195" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C195" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,10 +3158,10 @@
         <v>6214</v>
       </c>
       <c r="B196" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C196" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,10 +3169,10 @@
         <v>6215</v>
       </c>
       <c r="B197" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C197" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,10 +3180,10 @@
         <v>6216</v>
       </c>
       <c r="B198" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C198" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,10 +3191,10 @@
         <v>6217</v>
       </c>
       <c r="B199" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C199" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3412,10 +3202,10 @@
         <v>6218</v>
       </c>
       <c r="B200" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,10 +3213,10 @@
         <v>6219</v>
       </c>
       <c r="B201" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C201" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,10 +3224,10 @@
         <v>6220</v>
       </c>
       <c r="B202" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C202" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,10 +3235,10 @@
         <v>6221</v>
       </c>
       <c r="B203" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C203" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,10 +3246,10 @@
         <v>6222</v>
       </c>
       <c r="B204" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,10 +3257,10 @@
         <v>6223</v>
       </c>
       <c r="B205" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C205" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,10 +3268,10 @@
         <v>6224</v>
       </c>
       <c r="B206" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C206" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -3489,10 +3279,10 @@
         <v>6225</v>
       </c>
       <c r="B207" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C207" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,10 +3290,10 @@
         <v>6226</v>
       </c>
       <c r="B208" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,10 +3301,10 @@
         <v>6227</v>
       </c>
       <c r="B209" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C209" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,10 +3312,10 @@
         <v>6228</v>
       </c>
       <c r="B210" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C210" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,10 +3323,10 @@
         <v>6229</v>
       </c>
       <c r="B211" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,10 +3334,10 @@
         <v>6230</v>
       </c>
       <c r="B212" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,10 +3345,10 @@
         <v>6231</v>
       </c>
       <c r="B213" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,10 +3356,10 @@
         <v>6232</v>
       </c>
       <c r="B214" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,10 +3367,10 @@
         <v>6233</v>
       </c>
       <c r="B215" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,10 +3378,10 @@
         <v>6234</v>
       </c>
       <c r="B216" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C216" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,10 +3389,10 @@
         <v>6235</v>
       </c>
       <c r="B217" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C217" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -3610,10 +3400,10 @@
         <v>6236</v>
       </c>
       <c r="B218" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C218" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,10 +3411,10 @@
         <v>6237</v>
       </c>
       <c r="B219" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C219" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,10 +3422,10 @@
         <v>6238</v>
       </c>
       <c r="B220" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C220" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,10 +3433,10 @@
         <v>6239</v>
       </c>
       <c r="B221" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,10 +3444,10 @@
         <v>6240</v>
       </c>
       <c r="B222" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C222" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -3665,10 +3455,10 @@
         <v>6241</v>
       </c>
       <c r="B223" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C223" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -3676,10 +3466,10 @@
         <v>6242</v>
       </c>
       <c r="B224" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C224" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -3687,10 +3477,10 @@
         <v>6243</v>
       </c>
       <c r="B225" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C225" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -3698,10 +3488,10 @@
         <v>6244</v>
       </c>
       <c r="B226" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C226" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -3709,10 +3499,10 @@
         <v>6245</v>
       </c>
       <c r="B227" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C227" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,10 +3510,10 @@
         <v>6246</v>
       </c>
       <c r="B228" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C228" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,10 +3521,10 @@
         <v>6247</v>
       </c>
       <c r="B229" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,10 +3532,10 @@
         <v>6248</v>
       </c>
       <c r="B230" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C230" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,10 +3543,10 @@
         <v>6249</v>
       </c>
       <c r="B231" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C231" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,10 +3554,10 @@
         <v>6250</v>
       </c>
       <c r="B232" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -3775,10 +3565,10 @@
         <v>6251</v>
       </c>
       <c r="B233" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C233" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -3786,10 +3576,10 @@
         <v>6252</v>
       </c>
       <c r="B234" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C234" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -3797,10 +3587,10 @@
         <v>6253</v>
       </c>
       <c r="B235" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C235" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3808,10 +3598,10 @@
         <v>8859</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C236" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3819,10 +3609,10 @@
         <v>8860</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C237" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,10 +3620,10 @@
         <v>8861</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C238" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3841,10 +3631,10 @@
         <v>8862</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C239" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3852,10 +3642,10 @@
         <v>8863</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C240" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,10 +3653,10 @@
         <v>8864</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C241" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,10 +3664,10 @@
         <v>8865</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C242" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3885,10 +3675,10 @@
         <v>8866</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3896,10 +3686,10 @@
         <v>8867</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C244" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3907,10 +3697,10 @@
         <v>8868</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C245" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3918,10 +3708,10 @@
         <v>8869</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C246" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3929,10 +3719,10 @@
         <v>8870</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C247" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -3940,10 +3730,10 @@
         <v>8871</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C248" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -3951,10 +3741,10 @@
         <v>8872</v>
       </c>
       <c r="B249" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C249" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3962,10 +3752,10 @@
         <v>8873</v>
       </c>
       <c r="B250" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C250" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3973,10 +3763,10 @@
         <v>8874</v>
       </c>
       <c r="B251" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C251" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -3984,10 +3774,10 @@
         <v>8875</v>
       </c>
       <c r="B252" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C252" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -3995,10 +3785,10 @@
         <v>8876</v>
       </c>
       <c r="B253" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C253" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -4006,10 +3796,10 @@
         <v>8877</v>
       </c>
       <c r="B254" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C254" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4017,10 +3807,10 @@
         <v>8878</v>
       </c>
       <c r="B255" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C255" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4028,10 +3818,10 @@
         <v>8879</v>
       </c>
       <c r="B256" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C256" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -4039,10 +3829,10 @@
         <v>8880</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C257" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4050,10 +3840,10 @@
         <v>8881</v>
       </c>
       <c r="B258" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C258" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -4061,10 +3851,10 @@
         <v>8882</v>
       </c>
       <c r="B259" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C259" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -4072,10 +3862,10 @@
         <v>8883</v>
       </c>
       <c r="B260" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C260" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -4083,10 +3873,10 @@
         <v>8884</v>
       </c>
       <c r="B261" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C261" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -4094,10 +3884,10 @@
         <v>8885</v>
       </c>
       <c r="B262" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C262" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4105,10 +3895,10 @@
         <v>8886</v>
       </c>
       <c r="B263" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C263" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,10 +3906,10 @@
         <v>8887</v>
       </c>
       <c r="B264" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C264" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -4127,10 +3917,10 @@
         <v>8888</v>
       </c>
       <c r="B265" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C265" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,10 +3928,10 @@
         <v>8889</v>
       </c>
       <c r="B266" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C266" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -4149,10 +3939,10 @@
         <v>8890</v>
       </c>
       <c r="B267" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C267" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,10 +3950,10 @@
         <v>8891</v>
       </c>
       <c r="B268" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C268" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4171,10 +3961,10 @@
         <v>8892</v>
       </c>
       <c r="B269" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C269" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4182,10 +3972,10 @@
         <v>8893</v>
       </c>
       <c r="B270" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C270" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4193,10 +3983,10 @@
         <v>8894</v>
       </c>
       <c r="B271" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C271" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4204,10 +3994,10 @@
         <v>8895</v>
       </c>
       <c r="B272" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C272" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -4215,10 +4005,10 @@
         <v>8896</v>
       </c>
       <c r="B273" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C273" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -4226,10 +4016,10 @@
         <v>8897</v>
       </c>
       <c r="B274" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C274" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -4237,10 +4027,10 @@
         <v>8898</v>
       </c>
       <c r="B275" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C275" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -4248,10 +4038,10 @@
         <v>8899</v>
       </c>
       <c r="B276" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C276" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -4259,10 +4049,10 @@
         <v>8900</v>
       </c>
       <c r="B277" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C277" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -4270,10 +4060,10 @@
         <v>8901</v>
       </c>
       <c r="B278" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C278" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -4281,10 +4071,10 @@
         <v>8902</v>
       </c>
       <c r="B279" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C279" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -4292,10 +4082,10 @@
         <v>8903</v>
       </c>
       <c r="B280" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C280" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -4303,10 +4093,10 @@
         <v>8904</v>
       </c>
       <c r="B281" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C281" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -4314,10 +4104,10 @@
         <v>8905</v>
       </c>
       <c r="B282" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C282" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -4325,10 +4115,10 @@
         <v>8906</v>
       </c>
       <c r="B283" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C283" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -4336,10 +4126,10 @@
         <v>8907</v>
       </c>
       <c r="B284" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C284" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -4347,10 +4137,10 @@
         <v>8908</v>
       </c>
       <c r="B285" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C285" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -4358,10 +4148,10 @@
         <v>8909</v>
       </c>
       <c r="B286" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C286" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -4369,10 +4159,10 @@
         <v>8910</v>
       </c>
       <c r="B287" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C287" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -4380,10 +4170,10 @@
         <v>8911</v>
       </c>
       <c r="B288" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C288" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -4391,10 +4181,10 @@
         <v>8912</v>
       </c>
       <c r="B289" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C289" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -4402,10 +4192,10 @@
         <v>8913</v>
       </c>
       <c r="B290" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C290" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -4413,10 +4203,10 @@
         <v>8914</v>
       </c>
       <c r="B291" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C291" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -4424,10 +4214,10 @@
         <v>8915</v>
       </c>
       <c r="B292" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C292" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -4435,10 +4225,10 @@
         <v>8916</v>
       </c>
       <c r="B293" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C293" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -4446,10 +4236,10 @@
         <v>8917</v>
       </c>
       <c r="B294" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C294" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -4457,10 +4247,10 @@
         <v>8918</v>
       </c>
       <c r="B295" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C295" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -4468,10 +4258,10 @@
         <v>8919</v>
       </c>
       <c r="B296" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C296" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -4479,10 +4269,10 @@
         <v>8920</v>
       </c>
       <c r="B297" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C297" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -4490,10 +4280,10 @@
         <v>8921</v>
       </c>
       <c r="B298" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C298" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -4501,10 +4291,10 @@
         <v>8922</v>
       </c>
       <c r="B299" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C299" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -4512,10 +4302,10 @@
         <v>8923</v>
       </c>
       <c r="B300" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C300" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -4523,10 +4313,10 @@
         <v>8924</v>
       </c>
       <c r="B301" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C301" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -4534,10 +4324,10 @@
         <v>8925</v>
       </c>
       <c r="B302" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C302" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -4545,10 +4335,10 @@
         <v>8926</v>
       </c>
       <c r="B303" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C303" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -4556,10 +4346,10 @@
         <v>8927</v>
       </c>
       <c r="B304" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C304" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -4567,10 +4357,10 @@
         <v>8928</v>
       </c>
       <c r="B305" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C305" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
